--- a/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -46,31 +46,31 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>shortage</t>
   </si>
   <si>
     <t>sc</t>
@@ -79,6 +79,9 @@
     <t>risk</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
@@ -91,175 +94,172 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>essential</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
-    <t>online</t>
+    <t>local</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -620,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="L3">
         <v>25</v>
       </c>
-      <c r="K3">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="L3">
-        <v>32</v>
-      </c>
       <c r="M3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -760,16 +760,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -789,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.6952054794520548</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6986301369863014</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C6">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7">
         <v>0.9090909090909091</v>
@@ -939,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8">
         <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -1007,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8611111111111112</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3914728682170542</v>
+        <v>0.3992248062015504</v>
       </c>
       <c r="C10">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D10">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8482142857142857</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3758389261744967</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C11">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <v>0.8414634146341463</v>
@@ -1139,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3725490196078431</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.828125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.36</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.8214285714285714</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3068783068783069</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7916666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2857142857142857</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.8125</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1357,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1389,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2023809523809524</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C17">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1407,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7746478873239436</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1439,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.09651474530831099</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>337</v>
+        <v>204</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7619047619047619</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1481,21 +1481,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.1233243967828418</v>
+      </c>
+      <c r="C19">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>46</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>327</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1507,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.7264150943396226</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L20">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.7254901960784313</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1559,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.723404255319149</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1585,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.71875</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1611,47 +1635,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24">
+        <v>0.7125</v>
+      </c>
+      <c r="L24">
+        <v>114</v>
+      </c>
+      <c r="M24">
+        <v>114</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>46</v>
-      </c>
-      <c r="K24">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L24">
-        <v>34</v>
-      </c>
-      <c r="M24">
-        <v>34</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6914893617021277</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L25">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M25">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1663,21 +1687,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6785714285714286</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1689,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.6470588235294118</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1715,21 +1739,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1741,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.6214099216710183</v>
+        <v>0.625</v>
       </c>
       <c r="L29">
-        <v>238</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>238</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1767,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.6058823529411764</v>
+        <v>0.6109660574412533</v>
       </c>
       <c r="L30">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="M30">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1793,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.5777777777777777</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1819,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.575</v>
+        <v>0.58</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1845,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.5714285714285714</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1871,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.5525423728813559</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L34">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="M34">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1897,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>132</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.5393258426966292</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L35">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="M35">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1923,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.5348837209302325</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1949,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.525</v>
+        <v>0.4937238493723849</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1975,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.4853556485355648</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L38">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2001,47 +2025,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>123</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.46875</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.4615384615384616</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2053,47 +2077,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.4487179487179487</v>
+        <v>0.453125</v>
       </c>
       <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>29</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>35</v>
-      </c>
-      <c r="M41">
-        <v>35</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>43</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.4246575342465753</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2105,21 +2129,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.4</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2131,12 +2155,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K44">
         <v>0.3278688524590164</v>
@@ -2162,16 +2186,16 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K45">
-        <v>0.2638888888888889</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2183,21 +2207,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K46">
-        <v>0.1574803149606299</v>
+        <v>0.138755980861244</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2209,21 +2233,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>107</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K47">
-        <v>0.1348837209302326</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2235,21 +2259,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K48">
-        <v>0.1244019138755981</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L48">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2261,21 +2285,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>366</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K49">
-        <v>0.1105769230769231</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L49">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M49">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2287,73 +2311,73 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K50">
-        <v>0.1074766355140187</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>191</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K51">
-        <v>0.08612975391498881</v>
+        <v>0.1007838745800672</v>
       </c>
       <c r="L51">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M51">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K52">
-        <v>0.07547169811320754</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L52">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2365,21 +2389,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>833</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K53">
-        <v>0.07339449541284404</v>
+        <v>0.06548279689234185</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2391,189 +2415,163 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>303</v>
+        <v>842</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K54">
-        <v>0.04468412942989214</v>
+        <v>0.04971098265895954</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M54">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>620</v>
+        <v>822</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K55">
-        <v>0.04320987654320987</v>
+        <v>0.04806201550387597</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M55">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>465</v>
+        <v>614</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K56">
-        <v>0.04207573632538569</v>
+        <v>0.03695042095416277</v>
       </c>
       <c r="L56">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M56">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N56">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O56">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2049</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K57">
-        <v>0.03233256351039261</v>
+        <v>0.02688728024819028</v>
       </c>
       <c r="L57">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M57">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N57">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O57">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>838</v>
+        <v>941</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K58">
-        <v>0.02485474499677211</v>
+        <v>0.01998710509348807</v>
       </c>
       <c r="L58">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="M58">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="N58">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O58">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>3021</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K59">
-        <v>0.02171664943123061</v>
+        <v>0.01004079071226859</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N59">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="O59">
-        <v>0.05000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K60">
-        <v>0.01064495929868503</v>
-      </c>
-      <c r="L60">
-        <v>34</v>
-      </c>
-      <c r="M60">
-        <v>41</v>
-      </c>
-      <c r="N60">
-        <v>0.83</v>
-      </c>
-      <c r="O60">
-        <v>0.17</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>3160</v>
+        <v>3155</v>
       </c>
     </row>
   </sheetData>
